--- a/Excel/addresslist/test_SYMBOLタウンリスト_104件.xlsx
+++ b/Excel/addresslist/test_SYMBOLタウンリスト_104件.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilly\git\csharp\nagexym\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilly\git\csharp\nagexym\Excel\addresslist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF83807-4D46-4525-9521-9E8354BBDF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE019D1A-96E9-477D-852B-3DC4EC2B42CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31350" yWindow="4140" windowWidth="24495" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フォロワー" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="427">
   <si>
     <t>名前</t>
   </si>
@@ -81,18 +81,10 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>villhell-testnet</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>https://twitter.com/villhell_testnet2</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>xym</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>メッセージ</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -554,16 +546,7 @@
     <t>nage xym test2</t>
   </si>
   <si>
-    <t>nage xym test3</t>
-  </si>
-  <si>
     <t>nage xym test4</t>
-  </si>
-  <si>
-    <t>nage xym test5</t>
-  </si>
-  <si>
-    <t>nage xym test6</t>
   </si>
   <si>
     <t>nage xym test7</t>
@@ -1309,6 +1292,49 @@
   </si>
   <si>
     <t>test6</t>
+  </si>
+  <si>
+    <t>モザイク</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <rPh sb="0" eb="2">
+      <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>symbol.xym</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>villhell-testnet-mosaic</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>villhell_testnet.subnamespace1.villhell_testnet_subnamespace1-1</t>
+  </si>
+  <si>
+    <t>nage xym test5</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>3B1EE79644348F2A</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>nage xym test6</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>nage xym test105</t>
+  </si>
+  <si>
+    <t>72C0212E67A08BCE</t>
+  </si>
+  <si>
+    <t>villhell_testnet</t>
   </si>
 </sst>
 </file>
@@ -1375,19 +1401,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1440,10 +1466,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1667,10 +1693,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1685,7 +1711,7 @@
     <col min="8" max="8" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1700,14 +1726,17 @@
       <c r="F1" s="2">
         <v>44958.066173009254</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1720,14 +1749,17 @@
         <v>3</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1740,14 +1772,17 @@
         <v>4</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1760,1982 +1795,2288 @@
         <v>11</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="3"/>
       <c r="E5" s="5" t="s">
-        <v>13</v>
+        <v>426</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="G5" t="s">
+        <v>420</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" t="s">
+        <v>243</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="B6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" t="s">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" t="s">
+        <v>245</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" t="s">
         <v>246</v>
       </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="B7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="G11" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" t="s">
         <v>247</v>
       </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="G12" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" t="s">
         <v>248</v>
       </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="G13" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" t="s">
         <v>249</v>
       </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="G14" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" t="s">
         <v>250</v>
       </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="G15" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
         <v>251</v>
       </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="G16" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" t="s">
         <v>252</v>
       </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="G17" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" t="s">
         <v>253</v>
       </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="G18" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" t="s">
         <v>254</v>
       </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="G19" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" t="s">
         <v>255</v>
       </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="G20" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" t="s">
         <v>256</v>
       </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="G21" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" t="s">
         <v>257</v>
       </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="G22" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" t="s">
         <v>258</v>
       </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="G23" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" t="s">
         <v>259</v>
       </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="G24" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" t="s">
         <v>260</v>
       </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="G25" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" t="s">
         <v>261</v>
       </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="G26" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" t="s">
         <v>262</v>
       </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="G27" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" t="s">
         <v>263</v>
       </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="G28" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" t="s">
         <v>264</v>
       </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="G29" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" t="s">
         <v>265</v>
       </c>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="G30" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" t="s">
         <v>266</v>
       </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="G31" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" t="s">
         <v>267</v>
       </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="G32" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" t="s">
         <v>268</v>
       </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="G33" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" t="s">
         <v>269</v>
       </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" t="s">
-        <v>116</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="G34" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" t="s">
         <v>270</v>
       </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" t="s">
-        <v>117</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="G35" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" t="s">
         <v>271</v>
       </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="G36" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" t="s">
         <v>272</v>
       </c>
-      <c r="G32" s="3">
-        <v>1</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" t="s">
-        <v>119</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="G37" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" t="s">
         <v>273</v>
       </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" t="s">
-        <v>120</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="G38" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" t="s">
         <v>274</v>
       </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" t="s">
-        <v>121</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="G39" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" t="s">
         <v>275</v>
       </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" t="s">
-        <v>122</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="G40" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H40" s="3">
+        <v>1</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" t="s">
         <v>276</v>
       </c>
-      <c r="G36" s="3">
-        <v>1</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" t="s">
-        <v>123</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="G41" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" t="s">
         <v>277</v>
       </c>
-      <c r="G37" s="3">
-        <v>1</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" t="s">
-        <v>124</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="G42" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" t="s">
         <v>278</v>
       </c>
-      <c r="G38" s="3">
-        <v>1</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" t="s">
-        <v>125</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="G43" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" t="s">
         <v>279</v>
       </c>
-      <c r="G39" s="3">
-        <v>1</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="G44" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" t="s">
         <v>280</v>
       </c>
-      <c r="G40" s="3">
-        <v>1</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="G45" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" t="s">
         <v>281</v>
       </c>
-      <c r="G41" s="3">
-        <v>1</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" t="s">
-        <v>128</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="G46" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" t="s">
         <v>282</v>
       </c>
-      <c r="G42" s="3">
-        <v>1</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" t="s">
-        <v>129</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="G47" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" t="s">
         <v>283</v>
       </c>
-      <c r="G43" s="3">
-        <v>1</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" t="s">
-        <v>130</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="G48" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49" t="s">
         <v>284</v>
       </c>
-      <c r="G44" s="3">
-        <v>1</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" t="s">
-        <v>131</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="G49" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" t="s">
         <v>285</v>
       </c>
-      <c r="G45" s="3">
-        <v>1</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" t="s">
-        <v>132</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="G50" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H50" s="3">
+        <v>1</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" t="s">
         <v>286</v>
       </c>
-      <c r="G46" s="3">
-        <v>1</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" t="s">
-        <v>133</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="G51" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H51" s="3">
+        <v>1</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" t="s">
+        <v>136</v>
+      </c>
+      <c r="E52" t="s">
         <v>287</v>
       </c>
-      <c r="G47" s="3">
-        <v>1</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" t="s">
-        <v>134</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="G52" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" t="s">
         <v>288</v>
       </c>
-      <c r="G48" s="3">
-        <v>1</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" t="s">
-        <v>135</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="G53" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H53" s="3">
+        <v>1</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" t="s">
+        <v>138</v>
+      </c>
+      <c r="E54" t="s">
         <v>289</v>
       </c>
-      <c r="G49" s="3">
-        <v>1</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" t="s">
-        <v>136</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="G54" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55" t="s">
         <v>290</v>
       </c>
-      <c r="G50" s="3">
-        <v>1</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" t="s">
-        <v>137</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="G55" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H55" s="3">
+        <v>1</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" t="s">
+        <v>140</v>
+      </c>
+      <c r="E56" t="s">
         <v>291</v>
       </c>
-      <c r="G51" s="3">
-        <v>1</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" t="s">
-        <v>138</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="G56" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H56" s="3">
+        <v>1</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" t="s">
+        <v>141</v>
+      </c>
+      <c r="E57" t="s">
         <v>292</v>
       </c>
-      <c r="G52" s="3">
-        <v>1</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53" t="s">
-        <v>139</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="G57" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" t="s">
+        <v>142</v>
+      </c>
+      <c r="E58" t="s">
         <v>293</v>
       </c>
-      <c r="G53" s="3">
-        <v>1</v>
-      </c>
-      <c r="H53" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B54" t="s">
-        <v>140</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="G58" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" t="s">
+        <v>143</v>
+      </c>
+      <c r="E59" t="s">
         <v>294</v>
       </c>
-      <c r="G54" s="3">
-        <v>1</v>
-      </c>
-      <c r="H54" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B55" t="s">
-        <v>141</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="G59" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" t="s">
         <v>295</v>
       </c>
-      <c r="G55" s="3">
-        <v>1</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" t="s">
-        <v>142</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="G60" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" t="s">
         <v>296</v>
       </c>
-      <c r="G56" s="3">
-        <v>1</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B57" t="s">
-        <v>143</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="G61" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H61" s="3">
+        <v>1</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" t="s">
+        <v>146</v>
+      </c>
+      <c r="E62" t="s">
         <v>297</v>
       </c>
-      <c r="G57" s="3">
-        <v>1</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B58" t="s">
-        <v>144</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="G62" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" t="s">
+        <v>147</v>
+      </c>
+      <c r="E63" t="s">
         <v>298</v>
       </c>
-      <c r="G58" s="3">
-        <v>1</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B59" t="s">
-        <v>145</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="G63" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H63" s="3">
+        <v>1</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" t="s">
+        <v>148</v>
+      </c>
+      <c r="E64" t="s">
         <v>299</v>
       </c>
-      <c r="G59" s="3">
-        <v>1</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B60" t="s">
-        <v>146</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="G64" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H64" s="3">
+        <v>1</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" t="s">
+        <v>149</v>
+      </c>
+      <c r="E65" t="s">
         <v>300</v>
       </c>
-      <c r="G60" s="3">
-        <v>1</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B61" t="s">
-        <v>147</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="G65" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H65" s="3">
+        <v>1</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" t="s">
+        <v>150</v>
+      </c>
+      <c r="E66" t="s">
         <v>301</v>
       </c>
-      <c r="G61" s="3">
-        <v>1</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B62" t="s">
-        <v>148</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="G66" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" t="s">
+        <v>151</v>
+      </c>
+      <c r="E67" t="s">
         <v>302</v>
       </c>
-      <c r="G62" s="3">
-        <v>1</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B63" t="s">
-        <v>149</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="G67" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H67" s="3">
+        <v>1</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" t="s">
+        <v>152</v>
+      </c>
+      <c r="E68" t="s">
         <v>303</v>
       </c>
-      <c r="G63" s="3">
-        <v>1</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B64" t="s">
-        <v>150</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="G68" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H68" s="3">
+        <v>1</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" t="s">
+        <v>153</v>
+      </c>
+      <c r="E69" t="s">
         <v>304</v>
       </c>
-      <c r="G64" s="3">
-        <v>1</v>
-      </c>
-      <c r="H64" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B65" t="s">
-        <v>151</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="G69" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H69" s="3">
+        <v>1</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" t="s">
+        <v>154</v>
+      </c>
+      <c r="E70" t="s">
         <v>305</v>
       </c>
-      <c r="G65" s="3">
-        <v>1</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B66" t="s">
-        <v>152</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="G70" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H70" s="3">
+        <v>1</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" t="s">
+        <v>155</v>
+      </c>
+      <c r="E71" t="s">
         <v>306</v>
       </c>
-      <c r="G66" s="3">
-        <v>1</v>
-      </c>
-      <c r="H66" s="8" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B67" t="s">
-        <v>153</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="G71" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H71" s="3">
+        <v>1</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" t="s">
+        <v>156</v>
+      </c>
+      <c r="E72" t="s">
         <v>307</v>
       </c>
-      <c r="G67" s="3">
-        <v>1</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B68" t="s">
-        <v>154</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="G72" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" t="s">
+        <v>157</v>
+      </c>
+      <c r="E73" t="s">
         <v>308</v>
       </c>
-      <c r="G68" s="3">
-        <v>1</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B69" t="s">
-        <v>155</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="G73" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H73" s="3">
+        <v>1</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" t="s">
+        <v>158</v>
+      </c>
+      <c r="E74" t="s">
         <v>309</v>
       </c>
-      <c r="G69" s="3">
-        <v>1</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B70" t="s">
-        <v>156</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="G74" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H74" s="3">
+        <v>1</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" t="s">
+        <v>159</v>
+      </c>
+      <c r="E75" t="s">
         <v>310</v>
       </c>
-      <c r="G70" s="3">
-        <v>1</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B71" t="s">
-        <v>157</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="G75" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H75" s="3">
+        <v>1</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" t="s">
+        <v>160</v>
+      </c>
+      <c r="E76" t="s">
         <v>311</v>
       </c>
-      <c r="G71" s="3">
-        <v>1</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B72" t="s">
-        <v>158</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="G76" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77" t="s">
+        <v>161</v>
+      </c>
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H77" s="3">
+        <v>1</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" t="s">
+        <v>162</v>
+      </c>
+      <c r="E78" t="s">
         <v>312</v>
       </c>
-      <c r="G72" s="3">
-        <v>1</v>
-      </c>
-      <c r="H72" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B73" t="s">
-        <v>159</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="G78" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H78" s="3">
+        <v>1</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79" t="s">
+        <v>163</v>
+      </c>
+      <c r="E79" t="s">
         <v>313</v>
       </c>
-      <c r="G73" s="3">
-        <v>1</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B74" t="s">
-        <v>160</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="G79" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H79" s="3">
+        <v>1</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" t="s">
+        <v>164</v>
+      </c>
+      <c r="E80" t="s">
         <v>314</v>
       </c>
-      <c r="G74" s="3">
-        <v>1</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B75" t="s">
-        <v>161</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="G80" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H80" s="3">
+        <v>1</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" t="s">
+        <v>340</v>
+      </c>
+      <c r="E81" t="s">
         <v>315</v>
       </c>
-      <c r="G75" s="3">
-        <v>1</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B76" t="s">
-        <v>162</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="G81" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B82" t="s">
+        <v>341</v>
+      </c>
+      <c r="E82" t="s">
         <v>316</v>
       </c>
-      <c r="G76" s="3">
-        <v>1</v>
-      </c>
-      <c r="H76" s="8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B77" t="s">
-        <v>163</v>
-      </c>
-      <c r="E77" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" s="3">
-        <v>1</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B78" t="s">
-        <v>164</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="G82" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H82" s="3">
+        <v>1</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B83" t="s">
+        <v>342</v>
+      </c>
+      <c r="E83" t="s">
         <v>317</v>
       </c>
-      <c r="G78" s="3">
-        <v>1</v>
-      </c>
-      <c r="H78" s="8" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B79" t="s">
-        <v>165</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="G83" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B84" t="s">
+        <v>343</v>
+      </c>
+      <c r="E84" t="s">
         <v>318</v>
       </c>
-      <c r="G79" s="3">
-        <v>1</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B80" t="s">
-        <v>166</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="G84" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H84" s="3">
+        <v>1</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B85" t="s">
+        <v>344</v>
+      </c>
+      <c r="E85" t="s">
         <v>319</v>
       </c>
-      <c r="G80" s="3">
-        <v>1</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="G85" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H85" s="3">
+        <v>1</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B86" t="s">
         <v>345</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E86" t="s">
         <v>320</v>
       </c>
-      <c r="G81" s="3">
-        <v>1</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+      <c r="G86" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H86" s="3">
+        <v>1</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B87" t="s">
         <v>346</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E87" t="s">
         <v>321</v>
       </c>
-      <c r="G82" s="3">
-        <v>1</v>
-      </c>
-      <c r="H82" s="8" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+      <c r="G87" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H87" s="3">
+        <v>1</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B88" t="s">
         <v>347</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E88" t="s">
         <v>322</v>
       </c>
-      <c r="G83" s="3">
-        <v>1</v>
-      </c>
-      <c r="H83" s="8" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
+      <c r="G88" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H88" s="3">
+        <v>1</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B89" t="s">
         <v>348</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E89" t="s">
         <v>323</v>
       </c>
-      <c r="G84" s="3">
-        <v>1</v>
-      </c>
-      <c r="H84" s="8" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+      <c r="G89" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H89" s="3">
+        <v>1</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B90" t="s">
         <v>349</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E90" t="s">
         <v>324</v>
       </c>
-      <c r="G85" s="3">
-        <v>1</v>
-      </c>
-      <c r="H85" s="8" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+      <c r="G90" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H90" s="3">
+        <v>1</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B91" t="s">
         <v>350</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E91" t="s">
         <v>325</v>
       </c>
-      <c r="G86" s="3">
-        <v>1</v>
-      </c>
-      <c r="H86" s="8" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="G91" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H91" s="3">
+        <v>1</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B92" t="s">
         <v>351</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E92" t="s">
         <v>326</v>
       </c>
-      <c r="G87" s="3">
-        <v>1</v>
-      </c>
-      <c r="H87" s="8" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
+      <c r="G92" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H92" s="3">
+        <v>1</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B93" t="s">
         <v>352</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E93" t="s">
         <v>327</v>
       </c>
-      <c r="G88" s="3">
-        <v>1</v>
-      </c>
-      <c r="H88" s="8" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+      <c r="G93" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H93" s="3">
+        <v>1</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B94" t="s">
         <v>353</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E94" t="s">
         <v>328</v>
       </c>
-      <c r="G89" s="3">
-        <v>1</v>
-      </c>
-      <c r="H89" s="8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+      <c r="G94" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H94" s="3">
+        <v>1</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B95" t="s">
         <v>354</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E95" t="s">
         <v>329</v>
       </c>
-      <c r="G90" s="3">
-        <v>1</v>
-      </c>
-      <c r="H90" s="8" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+      <c r="G95" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H95" s="3">
+        <v>1</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B96" t="s">
         <v>355</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E96" t="s">
         <v>330</v>
       </c>
-      <c r="G91" s="3">
-        <v>1</v>
-      </c>
-      <c r="H91" s="8" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+      <c r="G96" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H96" s="3">
+        <v>1</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B97" t="s">
         <v>356</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E97" t="s">
         <v>331</v>
       </c>
-      <c r="G92" s="3">
-        <v>1</v>
-      </c>
-      <c r="H92" s="8" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+      <c r="G97" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H97" s="3">
+        <v>1</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B98" t="s">
         <v>357</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E98" t="s">
         <v>332</v>
       </c>
-      <c r="G93" s="3">
-        <v>1</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+      <c r="G98" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H98" s="3">
+        <v>1</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B99" t="s">
         <v>358</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E99" t="s">
         <v>333</v>
       </c>
-      <c r="G94" s="3">
-        <v>1</v>
-      </c>
-      <c r="H94" s="8" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+      <c r="G99" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H99" s="3">
+        <v>1</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B100" t="s">
         <v>359</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E100" t="s">
         <v>334</v>
       </c>
-      <c r="G95" s="3">
-        <v>1</v>
-      </c>
-      <c r="H95" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
+      <c r="G100" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H100" s="3">
+        <v>1</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B101" t="s">
         <v>360</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E101" t="s">
         <v>335</v>
       </c>
-      <c r="G96" s="3">
-        <v>1</v>
-      </c>
-      <c r="H96" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="G101" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H101" s="3">
+        <v>1</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B102" t="s">
         <v>361</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E102" t="s">
         <v>336</v>
       </c>
-      <c r="G97" s="3">
-        <v>1</v>
-      </c>
-      <c r="H97" s="8" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
+      <c r="G102" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H102" s="3">
+        <v>1</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B103" t="s">
         <v>362</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E103" t="s">
         <v>337</v>
       </c>
-      <c r="G98" s="3">
-        <v>1</v>
-      </c>
-      <c r="H98" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+      <c r="G103" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H103" s="3">
+        <v>1</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B104" t="s">
         <v>363</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E104" t="s">
         <v>338</v>
       </c>
-      <c r="G99" s="3">
-        <v>1</v>
-      </c>
-      <c r="H99" s="8" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+      <c r="G104" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H104" s="3">
+        <v>1</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B105" t="s">
         <v>364</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E105" t="s">
         <v>339</v>
       </c>
-      <c r="G100" s="3">
-        <v>1</v>
-      </c>
-      <c r="H100" s="8" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="B101" t="s">
-        <v>365</v>
-      </c>
-      <c r="E101" t="s">
-        <v>340</v>
-      </c>
-      <c r="G101" s="3">
-        <v>1</v>
-      </c>
-      <c r="H101" s="8" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="B102" t="s">
-        <v>366</v>
-      </c>
-      <c r="E102" t="s">
-        <v>341</v>
-      </c>
-      <c r="G102" s="3">
-        <v>1</v>
-      </c>
-      <c r="H102" s="8" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="B103" t="s">
-        <v>367</v>
-      </c>
-      <c r="E103" t="s">
-        <v>342</v>
-      </c>
-      <c r="G103" s="3">
-        <v>1</v>
-      </c>
-      <c r="H103" s="8" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="B104" t="s">
-        <v>368</v>
-      </c>
-      <c r="E104" t="s">
-        <v>343</v>
-      </c>
-      <c r="G104" s="3">
-        <v>1</v>
-      </c>
-      <c r="H104" s="8" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="B105" t="s">
-        <v>369</v>
-      </c>
-      <c r="E105" t="s">
-        <v>344</v>
-      </c>
-      <c r="G105" s="3">
-        <v>1</v>
-      </c>
-      <c r="H105" s="8" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G105" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H105" s="3">
+        <v>1</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="G106" s="3"/>
-      <c r="H106" s="8"/>
-    </row>
-    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H106" s="7"/>
+    </row>
+    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="8"/>
-    </row>
-    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H107" s="7"/>
+    </row>
+    <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="G108" s="3"/>
-      <c r="H108" s="8"/>
-    </row>
-    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H108" s="7"/>
+    </row>
+    <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="G109" s="3"/>
-      <c r="H109" s="8"/>
-    </row>
-    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H109" s="7"/>
+    </row>
+    <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="G110" s="3"/>
-      <c r="H110" s="8"/>
-    </row>
-    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H110" s="7"/>
+    </row>
+    <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="G111" s="3"/>
-      <c r="H111" s="8"/>
-    </row>
-    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H111" s="7"/>
+    </row>
+    <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="G112" s="3"/>
-      <c r="H112" s="8"/>
+      <c r="H112" s="7"/>
     </row>
     <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="G113" s="3"/>
-      <c r="H113" s="8"/>
+      <c r="H113" s="7"/>
     </row>
     <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="G114" s="3"/>
-      <c r="H114" s="8"/>
+      <c r="H114" s="7"/>
     </row>
     <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="G115" s="3"/>
-      <c r="H115" s="8"/>
+      <c r="H115" s="7"/>
     </row>
     <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="G116" s="3"/>
-      <c r="H116" s="8"/>
+      <c r="H116" s="7"/>
     </row>
     <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="G117" s="3"/>
-      <c r="H117" s="8"/>
+      <c r="H117" s="7"/>
     </row>
     <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="G118" s="3"/>
-      <c r="H118" s="8"/>
+      <c r="H118" s="7"/>
     </row>
     <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="G119" s="3"/>
-      <c r="H119" s="8"/>
+      <c r="H119" s="7"/>
     </row>
     <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="G120" s="3"/>
-      <c r="H120" s="8"/>
+      <c r="H120" s="7"/>
     </row>
     <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="G121" s="3"/>
-      <c r="H121" s="8"/>
+      <c r="H121" s="7"/>
     </row>
     <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="G122" s="3"/>
-      <c r="H122" s="8"/>
+      <c r="H122" s="7"/>
     </row>
     <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="G123" s="3"/>
-      <c r="H123" s="8"/>
+      <c r="H123" s="7"/>
     </row>
     <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="G124" s="3"/>
-      <c r="H124" s="8"/>
+      <c r="H124" s="7"/>
     </row>
     <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="G125" s="3"/>
-      <c r="H125" s="8"/>
+      <c r="H125" s="7"/>
     </row>
     <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="G126" s="3"/>
-      <c r="H126" s="8"/>
+      <c r="H126" s="7"/>
     </row>
     <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="G127" s="3"/>
-      <c r="H127" s="8"/>
+      <c r="H127" s="7"/>
     </row>
     <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="G128" s="3"/>
-      <c r="H128" s="8"/>
+      <c r="H128" s="7"/>
     </row>
     <row r="129" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="G129" s="3"/>
-      <c r="H129" s="8"/>
+      <c r="H129" s="7"/>
     </row>
     <row r="130" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="G130" s="3"/>
-      <c r="H130" s="8"/>
+      <c r="H130" s="7"/>
     </row>
     <row r="131" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="G131" s="3"/>
-      <c r="H131" s="8"/>
+      <c r="H131" s="7"/>
     </row>
     <row r="132" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="G132" s="3"/>
-      <c r="H132" s="8"/>
+      <c r="H132" s="7"/>
     </row>
     <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="G133" s="3"/>
-      <c r="H133" s="8"/>
+      <c r="H133" s="7"/>
     </row>
     <row r="134" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="G134" s="3"/>
-      <c r="H134" s="8"/>
+      <c r="H134" s="7"/>
     </row>
     <row r="135" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="G135" s="3"/>
-      <c r="H135" s="8"/>
+      <c r="H135" s="7"/>
     </row>
     <row r="136" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="G136" s="3"/>
-      <c r="H136" s="8"/>
+      <c r="H136" s="7"/>
     </row>
     <row r="137" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="G137" s="3"/>
-      <c r="H137" s="8"/>
+      <c r="H137" s="7"/>
     </row>
     <row r="138" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="G138" s="3"/>
-      <c r="H138" s="8"/>
+      <c r="H138" s="7"/>
     </row>
     <row r="139" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="G139" s="3"/>
-      <c r="H139" s="8"/>
+      <c r="H139" s="7"/>
     </row>
     <row r="140" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="G140" s="3"/>
-      <c r="H140" s="8"/>
+      <c r="H140" s="7"/>
     </row>
     <row r="141" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="G141" s="3"/>
-      <c r="H141" s="8"/>
+      <c r="H141" s="7"/>
     </row>
     <row r="142" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="G142" s="3"/>
-      <c r="H142" s="8"/>
+      <c r="H142" s="7"/>
     </row>
     <row r="143" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="G143" s="3"/>
-      <c r="H143" s="8"/>
+      <c r="H143" s="7"/>
     </row>
     <row r="144" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="G144" s="3"/>
-      <c r="H144" s="8"/>
+      <c r="H144" s="7"/>
     </row>
     <row r="145" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="G145" s="3"/>
-      <c r="H145" s="8"/>
+      <c r="H145" s="7"/>
     </row>
     <row r="146" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="G146" s="3"/>
-      <c r="H146" s="8"/>
+      <c r="H146" s="7"/>
     </row>
     <row r="147" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="G147" s="3"/>
-      <c r="H147" s="8"/>
+      <c r="H147" s="7"/>
     </row>
     <row r="148" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="G148" s="3"/>
-      <c r="H148" s="8"/>
+      <c r="H148" s="7"/>
     </row>
     <row r="149" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="G149" s="3"/>
-      <c r="H149" s="8"/>
+      <c r="H149" s="7"/>
     </row>
     <row r="150" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="G150" s="3"/>
-      <c r="H150" s="8"/>
+      <c r="H150" s="7"/>
     </row>
     <row r="151" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="G151" s="3"/>
-      <c r="H151" s="8"/>
+      <c r="H151" s="7"/>
     </row>
     <row r="152" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="G152" s="3"/>
-      <c r="H152" s="8"/>
+      <c r="H152" s="7"/>
     </row>
     <row r="153" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="G153" s="3"/>
-      <c r="H153" s="8"/>
+      <c r="H153" s="7"/>
     </row>
     <row r="154" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="G154" s="3"/>
-      <c r="H154" s="8"/>
+      <c r="H154" s="7"/>
     </row>
     <row r="155" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="G155" s="3"/>
-      <c r="H155" s="8"/>
+      <c r="H155" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
